--- a/TrashTheCache/Graphs.xlsx
+++ b/TrashTheCache/Graphs.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Github\bargin\TrashTheCache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B34C1-20CF-4BB8-9EE5-FA9412DE6048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25B9F27-82AF-4E5E-9490-B1D341550D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="0" windowWidth="18825" windowHeight="15585" xr2:uid="{78CA0857-4CD4-489F-9DED-390EC1817BFF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26655" windowHeight="15585" activeTab="1" xr2:uid="{78CA0857-4CD4-489F-9DED-390EC1817BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
     <sheet name="Exercise 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Summary" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercise 1'!$C$17:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exercise 2'!$C$17:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercise 1'!$C$17:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exercise 2'!$C$17:$D$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,28 +42,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Iteration Size</t>
-  </si>
-  <si>
-    <t>EXERCISE 1</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>Microseconds</t>
   </si>
   <si>
-    <t>(outliers have been removed)</t>
+    <t>EXERCISE 2  : GAMEOBJECT3D</t>
+  </si>
+  <si>
+    <t>EXERCISE 2 : ALTERNATIVE</t>
+  </si>
+  <si>
+    <t>integers</t>
+  </si>
+  <si>
+    <t>gameobject3d</t>
+  </si>
+  <si>
+    <t>gameobject3dalt</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>EXERCISE 1 : INTEGERS</t>
+  </si>
+  <si>
+    <t>Average (outliers removed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +131,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +186,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -156,6 +193,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,33 +312,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,7 +387,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -330,7 +402,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -427,78 +499,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0495-436B-8E6B-93CA72F3D7D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Exercise 1'!$R$3:$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>170641,3571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170294,1429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150483,0714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68433,64286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35552,78571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18525,64286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10404,85714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6763,214286</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3652,857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1655,571429</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0495-436B-8E6B-93CA72F3D7D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,9 +696,519 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 2'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>673804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374933.64285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193792.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111701.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76684.357142857145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38252.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21383.357142857141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12390.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3305.2857142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-787D-4F6E-9056-F7FC0750415C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 2'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$R$19:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>387685.71428571426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317990.14285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203493.85714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113641.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71792.78571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36885.928571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19693.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10784.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7097.8571428571431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3793.2142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716.9285714285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-787D-4F6E-9056-F7FC0750415C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="916959296"/>
+        <c:axId val="916940576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="916959296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916940576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916940576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916959296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Times</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 1'!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 1'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>170641.35714285713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170294.14285714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150483.07142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68433.642857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35552.785714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18525.642857142859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10404.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6763.2142857142853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3652.8571428571427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1655.5714285714287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE98-4F69-B969-25F0E1B61367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -711,48 +1221,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Exercise 2'!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Exercise 2'!$R$3:$R$13</c:f>
@@ -760,37 +1228,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>170641.35714285713</c:v>
+                  <c:v>673804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170294.14285714287</c:v>
+                  <c:v>374933.64285714284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150483.07142857142</c:v>
+                  <c:v>193792.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100023</c:v>
+                  <c:v>111701.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68433.642857142855</c:v>
+                  <c:v>76684.357142857145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35552.785714285717</c:v>
+                  <c:v>38252.428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18525.642857142859</c:v>
+                  <c:v>21383.357142857141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10404.857142857143</c:v>
+                  <c:v>12390.857142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6763.2142857142853</c:v>
+                  <c:v>7601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3652.8571428571427</c:v>
+                  <c:v>4383</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1655.5714285714287</c:v>
+                  <c:v>3305.2857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,58 +1266,17 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1512-45AC-A6F1-D9D918498023}"/>
+              <c16:uniqueId val="{00000003-BE98-4F69-B969-25F0E1B61367}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Exercise 2'!$R$3:$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>170641,3571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>170294,1429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150483,0714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68433,64286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35552,78571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18525,64286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10404,85714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6763,214286</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3652,857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1655,571429</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -859,18 +1286,351 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Exercise 2'!$R$19:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>387685.71428571426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317990.14285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203493.85714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113641.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71792.78571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36885.928571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19693.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10784.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7097.8571428571431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3793.2142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716.9285714285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1512-45AC-A6F1-D9D918498023}"/>
+              <c16:uniqueId val="{00000004-BE98-4F69-B969-25F0E1B61367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="916959296"/>
+        <c:axId val="916940576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="916959296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916940576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916940576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916959296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Times</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 1'!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 1'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>170641.35714285713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170294.14285714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150483.07142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68433.642857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35552.785714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18525.642857142859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10404.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6763.2142857142853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3652.8571428571427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1655.5714285714287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29E3-4CC9-91B8-80F6D45DCB69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1045,13 +1805,889 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 2'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>673804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>374933.64285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193792.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111701.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76684.357142857145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38252.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21383.357142857141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12390.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3305.2857142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2F9-476A-9FB7-A55C1F2E0207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="916959296"/>
+        <c:axId val="916940576"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Exercise 2'!$A$19:$A$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Exercise 2'!$R$19:$R$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>387685.71428571426</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>317990.14285714284</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>203493.85714285713</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>113641.42857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>71792.78571428571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>36885.928571428572</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19693.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10784.285714285714</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7097.8571428571431</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3793.2142857142858</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1716.9285714285713</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F2F9-476A-9FB7-A55C1F2E0207}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="916959296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916940576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916940576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916959296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Exercise 2'!$A$19:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercise 2'!$R$19:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>387685.71428571426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317990.14285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203493.85714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113641.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71792.78571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36885.928571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19693.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10784.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7097.8571428571431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3793.2142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1716.9285714285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21B4-47EE-90BB-27A43D3326EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="916959296"/>
+        <c:axId val="916940576"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Exercise 2'!$A$19:$A$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Exercise 2'!$R$3:$R$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>673804</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>374933.64285714284</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>193792.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>111701.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>76684.357142857145</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38252.428571428572</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21383.357142857141</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12390.857142857143</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7601</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4383</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3305.2857142857142</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-21B4-47EE-90BB-27A43D3326EB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="916959296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916940576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916940576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916959296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1085,13 +2721,90 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1642,6 +3355,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2202,16 +5979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1135868</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1629</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10186</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304595</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>77829</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2241,10 +6018,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B9DA53-8278-4C54-8C0A-9C48D3EE97D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5F836A-D9A3-4DD9-BBA0-C083E12BBC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6825720F-A22D-4386-87C7-A79AFD25CCB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957B7F8F-6504-4455-A669-39365D5A99BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2258,7 +6192,7 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="E97132"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="E97132"/>
@@ -2561,8 +6495,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,686 +6506,701 @@
     <col min="18" max="18" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>171085</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>153185</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>168309</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>172076</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>182382</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>165717</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>169436</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>153603</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>160047</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>184140</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <v>186604</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>153755</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="7">
         <v>179509</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="7">
         <v>168664</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="7">
         <v>179852</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="7">
         <v>180404</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="22">
         <f>TRIMMEAN(B3:Q3,20%)</f>
         <v>170641.35714285713</v>
       </c>
-      <c r="U3" s="15"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>182422</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>162244</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>170862</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>163163</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>172115</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>170061</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>172778</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>163430</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>168189</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>167048</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>186779</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>163824</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>181266</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>164453</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>178226</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>166281</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="22">
         <f t="shared" ref="R4:R13" si="0">TRIMMEAN(B4:Q4,20%)</f>
         <v>170294.14285714287</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>152209</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>152398</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>152939</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>153021</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>162650</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>148311</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>147977</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>146741</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>148378</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>149343</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>155067</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>145710</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>151822</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>147584</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>153923</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>147050</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="22">
         <f t="shared" si="0"/>
         <v>150483.07142857142</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>104531</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100097</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>103597</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>109944</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>98412</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>98666</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>101738</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>95873</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>96467</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>98282</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>96335</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>99620</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>102187</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>97538</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>104108</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>98744</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="22">
         <f t="shared" si="0"/>
         <v>100023</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>66529</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>67905</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>75508</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>67382</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>66828</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>67556</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>67213</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>67264</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>72229</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>67502</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>71855</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>69348</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>67132</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>69870</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>66841</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>69146</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="22">
         <f t="shared" si="0"/>
         <v>68433.642857142855</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>32</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>34928</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>35415</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>34415</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>35783</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>37732</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>34698</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>34067</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>35999</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>43681</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>35337</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>34787</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>38505</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>34378</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>35385</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>35008</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>35369</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="22">
         <f t="shared" si="0"/>
         <v>35552.785714285717</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>64</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>20432</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>17369</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>17616</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>18241</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>19167</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>19163</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>17631</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>17610</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>18584</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>18743</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>17674</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>19413</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>19302</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>17822</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>20380</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>18013</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="22">
         <f t="shared" si="0"/>
         <v>18525.642857142859</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>128</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>11058</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9914</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>9861</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>10443</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>9977</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>11118</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>10743</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>9837</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>10719</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>10324</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>10051</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>10834</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>10602</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>9535</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>12524</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>10187</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="22">
         <f t="shared" si="0"/>
         <v>10404.857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>256</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7282</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6573</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>6732</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>6676</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>7342</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>6707</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>6174</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>6374</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>6606</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>6788</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>6345</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>6604</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>7588</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>6748</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>7389</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>6519</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="22">
         <f t="shared" si="0"/>
         <v>6763.2142857142853</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>512</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>3856</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4048</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3304</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3878</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>3520</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3171</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>3662</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>3347</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>3709</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>3501</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>4084</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>3438</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>4209</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>3382</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>3602</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>3809</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="22">
         <f t="shared" si="0"/>
         <v>3652.8571428571427</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1024</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1916</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1432</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1480</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1737</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1474</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1983</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1477</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1549</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>1449</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>1791</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1449</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>1887</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>2291</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>1627</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>1917</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>1442</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="22">
         <f t="shared" si="0"/>
         <v>1655.5714285714287</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,699 +7211,1441 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AAB66-6BBB-4A32-9C54-B2D35D81D543}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
-        <v>171085</v>
-      </c>
-      <c r="C3" s="10">
-        <v>153185</v>
-      </c>
-      <c r="D3" s="10">
-        <v>168309</v>
-      </c>
-      <c r="E3" s="10">
-        <v>172076</v>
-      </c>
-      <c r="F3" s="10">
-        <v>182382</v>
-      </c>
-      <c r="G3" s="10">
-        <v>165717</v>
-      </c>
-      <c r="H3" s="10">
-        <v>169436</v>
-      </c>
-      <c r="I3" s="10">
-        <v>153603</v>
-      </c>
-      <c r="J3" s="10">
-        <v>160047</v>
-      </c>
-      <c r="K3" s="10">
-        <v>184140</v>
-      </c>
-      <c r="L3" s="10">
-        <v>186604</v>
-      </c>
-      <c r="M3" s="10">
-        <v>153755</v>
-      </c>
-      <c r="N3" s="10">
-        <v>179509</v>
-      </c>
-      <c r="O3" s="10">
-        <v>168664</v>
-      </c>
-      <c r="P3" s="10">
-        <v>179852</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>180404</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="B3" s="7">
+        <v>794273</v>
+      </c>
+      <c r="C3" s="7">
+        <v>670041</v>
+      </c>
+      <c r="D3" s="7">
+        <v>784803</v>
+      </c>
+      <c r="E3" s="7">
+        <v>666443</v>
+      </c>
+      <c r="F3" s="7">
+        <v>631450</v>
+      </c>
+      <c r="G3" s="7">
+        <v>630778</v>
+      </c>
+      <c r="H3" s="7">
+        <v>678210</v>
+      </c>
+      <c r="I3" s="7">
+        <v>636405</v>
+      </c>
+      <c r="J3" s="7">
+        <v>653271</v>
+      </c>
+      <c r="K3" s="7">
+        <v>654304</v>
+      </c>
+      <c r="L3" s="7">
+        <v>643214</v>
+      </c>
+      <c r="M3" s="7">
+        <v>687815</v>
+      </c>
+      <c r="N3" s="7">
+        <v>805080</v>
+      </c>
+      <c r="O3" s="7">
+        <v>660996</v>
+      </c>
+      <c r="P3" s="7">
+        <v>640592</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>631439</v>
+      </c>
+      <c r="R3" s="20">
         <f>TRIMMEAN(B3:Q3,20%)</f>
-        <v>170641.35714285713</v>
-      </c>
-      <c r="U3" s="15"/>
+        <v>673804</v>
+      </c>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>182422</v>
-      </c>
-      <c r="C4" s="4">
-        <v>162244</v>
-      </c>
-      <c r="D4" s="4">
-        <v>170862</v>
-      </c>
-      <c r="E4" s="4">
-        <v>163163</v>
-      </c>
-      <c r="F4" s="4">
-        <v>172115</v>
-      </c>
-      <c r="G4" s="4">
-        <v>170061</v>
-      </c>
-      <c r="H4" s="4">
-        <v>172778</v>
-      </c>
-      <c r="I4" s="4">
-        <v>163430</v>
-      </c>
-      <c r="J4" s="4">
-        <v>168189</v>
-      </c>
-      <c r="K4" s="4">
-        <v>167048</v>
-      </c>
-      <c r="L4" s="4">
-        <v>186779</v>
-      </c>
-      <c r="M4" s="4">
-        <v>163824</v>
-      </c>
-      <c r="N4" s="4">
-        <v>181266</v>
-      </c>
-      <c r="O4" s="4">
-        <v>164453</v>
-      </c>
-      <c r="P4" s="4">
-        <v>178226</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>166281</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" ref="R4:R13" si="0">TRIMMEAN(B4:Q4,20%)</f>
-        <v>170294.14285714287</v>
+      <c r="B4" s="3">
+        <v>420581</v>
+      </c>
+      <c r="C4" s="3">
+        <v>476773</v>
+      </c>
+      <c r="D4" s="3">
+        <v>407752</v>
+      </c>
+      <c r="E4" s="3">
+        <v>366784</v>
+      </c>
+      <c r="F4" s="3">
+        <v>372029</v>
+      </c>
+      <c r="G4" s="3">
+        <v>345991</v>
+      </c>
+      <c r="H4" s="3">
+        <v>354202</v>
+      </c>
+      <c r="I4" s="3">
+        <v>351091</v>
+      </c>
+      <c r="J4" s="3">
+        <v>383701</v>
+      </c>
+      <c r="K4" s="3">
+        <v>362956</v>
+      </c>
+      <c r="L4" s="3">
+        <v>346422</v>
+      </c>
+      <c r="M4" s="3">
+        <v>360578</v>
+      </c>
+      <c r="N4" s="3">
+        <v>429629</v>
+      </c>
+      <c r="O4" s="3">
+        <v>371032</v>
+      </c>
+      <c r="P4" s="3">
+        <v>374954</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>347360</v>
+      </c>
+      <c r="R4" s="20">
+        <f>TRIMMEAN(B4:Q4,20%)</f>
+        <v>374933.64285714284</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>152209</v>
-      </c>
-      <c r="C5" s="4">
-        <v>152398</v>
-      </c>
-      <c r="D5" s="4">
-        <v>152939</v>
-      </c>
-      <c r="E5" s="4">
-        <v>153021</v>
-      </c>
-      <c r="F5" s="4">
-        <v>162650</v>
-      </c>
-      <c r="G5" s="4">
-        <v>148311</v>
-      </c>
-      <c r="H5" s="4">
-        <v>147977</v>
-      </c>
-      <c r="I5" s="4">
-        <v>146741</v>
-      </c>
-      <c r="J5" s="4">
-        <v>148378</v>
-      </c>
-      <c r="K5" s="4">
-        <v>149343</v>
-      </c>
-      <c r="L5" s="4">
-        <v>155067</v>
-      </c>
-      <c r="M5" s="4">
-        <v>145710</v>
-      </c>
-      <c r="N5" s="4">
-        <v>151822</v>
-      </c>
-      <c r="O5" s="4">
-        <v>147584</v>
-      </c>
-      <c r="P5" s="4">
-        <v>153923</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>147050</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="0"/>
-        <v>150483.07142857142</v>
+      <c r="B5" s="3">
+        <v>186731</v>
+      </c>
+      <c r="C5" s="3">
+        <v>258245</v>
+      </c>
+      <c r="D5" s="3">
+        <v>202877</v>
+      </c>
+      <c r="E5" s="3">
+        <v>181066</v>
+      </c>
+      <c r="F5" s="3">
+        <v>181578</v>
+      </c>
+      <c r="G5" s="3">
+        <v>183374</v>
+      </c>
+      <c r="H5" s="3">
+        <v>188510</v>
+      </c>
+      <c r="I5" s="3">
+        <v>184468</v>
+      </c>
+      <c r="J5" s="3">
+        <v>202981</v>
+      </c>
+      <c r="K5" s="3">
+        <v>185706</v>
+      </c>
+      <c r="L5" s="3">
+        <v>179483</v>
+      </c>
+      <c r="M5" s="3">
+        <v>184854</v>
+      </c>
+      <c r="N5" s="3">
+        <v>325737</v>
+      </c>
+      <c r="O5" s="3">
+        <v>209184</v>
+      </c>
+      <c r="P5" s="3">
+        <v>184038</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>173922</v>
+      </c>
+      <c r="R5" s="20">
+        <f>TRIMMEAN(B5:Q5,20%)</f>
+        <v>193792.5</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>104531</v>
-      </c>
-      <c r="C6" s="4">
-        <v>100097</v>
-      </c>
-      <c r="D6" s="4">
-        <v>103597</v>
-      </c>
-      <c r="E6" s="4">
-        <v>109944</v>
-      </c>
-      <c r="F6" s="4">
-        <v>98412</v>
-      </c>
-      <c r="G6" s="4">
-        <v>98666</v>
-      </c>
-      <c r="H6" s="4">
-        <v>101738</v>
-      </c>
-      <c r="I6" s="4">
-        <v>95873</v>
-      </c>
-      <c r="J6" s="4">
-        <v>96467</v>
-      </c>
-      <c r="K6" s="4">
-        <v>98282</v>
-      </c>
-      <c r="L6" s="4">
-        <v>96335</v>
-      </c>
-      <c r="M6" s="4">
-        <v>99620</v>
-      </c>
-      <c r="N6" s="4">
-        <v>102187</v>
-      </c>
-      <c r="O6" s="4">
-        <v>97538</v>
-      </c>
-      <c r="P6" s="4">
-        <v>104108</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>98744</v>
-      </c>
-      <c r="R6" s="6">
-        <f t="shared" si="0"/>
-        <v>100023</v>
+      <c r="B6" s="3">
+        <v>110885</v>
+      </c>
+      <c r="C6" s="3">
+        <v>116793</v>
+      </c>
+      <c r="D6" s="3">
+        <v>114414</v>
+      </c>
+      <c r="E6" s="3">
+        <v>109903</v>
+      </c>
+      <c r="F6" s="3">
+        <v>118494</v>
+      </c>
+      <c r="G6" s="3">
+        <v>113166</v>
+      </c>
+      <c r="H6" s="3">
+        <v>109398</v>
+      </c>
+      <c r="I6" s="3">
+        <v>108053</v>
+      </c>
+      <c r="J6" s="3">
+        <v>106324</v>
+      </c>
+      <c r="K6" s="3">
+        <v>109434</v>
+      </c>
+      <c r="L6" s="3">
+        <v>115730</v>
+      </c>
+      <c r="M6" s="3">
+        <v>107565</v>
+      </c>
+      <c r="N6" s="3">
+        <v>125352</v>
+      </c>
+      <c r="O6" s="3">
+        <v>107629</v>
+      </c>
+      <c r="P6" s="3">
+        <v>111291</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>111066</v>
+      </c>
+      <c r="R6" s="20">
+        <f>TRIMMEAN(B6:Q6,20%)</f>
+        <v>111701.5</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>66529</v>
-      </c>
-      <c r="C7" s="4">
-        <v>67905</v>
-      </c>
-      <c r="D7" s="4">
-        <v>75508</v>
-      </c>
-      <c r="E7" s="4">
-        <v>67382</v>
-      </c>
-      <c r="F7" s="4">
-        <v>66828</v>
-      </c>
-      <c r="G7" s="4">
-        <v>67556</v>
-      </c>
-      <c r="H7" s="4">
-        <v>67213</v>
-      </c>
-      <c r="I7" s="4">
-        <v>67264</v>
-      </c>
-      <c r="J7" s="4">
-        <v>72229</v>
-      </c>
-      <c r="K7" s="4">
-        <v>67502</v>
-      </c>
-      <c r="L7" s="4">
-        <v>71855</v>
-      </c>
-      <c r="M7" s="4">
-        <v>69348</v>
-      </c>
-      <c r="N7" s="4">
-        <v>67132</v>
-      </c>
-      <c r="O7" s="4">
-        <v>69870</v>
-      </c>
-      <c r="P7" s="4">
-        <v>66841</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>69146</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="0"/>
-        <v>68433.642857142855</v>
+      <c r="B7" s="3">
+        <v>77549</v>
+      </c>
+      <c r="C7" s="3">
+        <v>78460</v>
+      </c>
+      <c r="D7" s="3">
+        <v>75454</v>
+      </c>
+      <c r="E7" s="3">
+        <v>68576</v>
+      </c>
+      <c r="F7" s="3">
+        <v>80065</v>
+      </c>
+      <c r="G7" s="3">
+        <v>77722</v>
+      </c>
+      <c r="H7" s="3">
+        <v>73266</v>
+      </c>
+      <c r="I7" s="3">
+        <v>72281</v>
+      </c>
+      <c r="J7" s="3">
+        <v>83272</v>
+      </c>
+      <c r="K7" s="3">
+        <v>78100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>76307</v>
+      </c>
+      <c r="M7" s="3">
+        <v>79375</v>
+      </c>
+      <c r="N7" s="3">
+        <v>80333</v>
+      </c>
+      <c r="O7" s="3">
+        <v>80908</v>
+      </c>
+      <c r="P7" s="3">
+        <v>72125</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>71636</v>
+      </c>
+      <c r="R7" s="20">
+        <f>TRIMMEAN(B7:Q7,20%)</f>
+        <v>76684.357142857145</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>32</v>
       </c>
-      <c r="B8" s="4">
-        <v>34928</v>
-      </c>
-      <c r="C8" s="4">
-        <v>35415</v>
-      </c>
-      <c r="D8" s="4">
-        <v>34415</v>
-      </c>
-      <c r="E8" s="4">
-        <v>35783</v>
-      </c>
-      <c r="F8" s="4">
-        <v>37732</v>
-      </c>
-      <c r="G8" s="4">
-        <v>34698</v>
-      </c>
-      <c r="H8" s="4">
-        <v>34067</v>
-      </c>
-      <c r="I8" s="4">
-        <v>35999</v>
-      </c>
-      <c r="J8" s="4">
-        <v>43681</v>
-      </c>
-      <c r="K8" s="4">
-        <v>35337</v>
-      </c>
-      <c r="L8" s="4">
-        <v>34787</v>
-      </c>
-      <c r="M8" s="4">
-        <v>38505</v>
-      </c>
-      <c r="N8" s="4">
-        <v>34378</v>
-      </c>
-      <c r="O8" s="4">
-        <v>35385</v>
-      </c>
-      <c r="P8" s="4">
-        <v>35008</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>35369</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" si="0"/>
-        <v>35552.785714285717</v>
+      <c r="B8" s="3">
+        <v>36142</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43441</v>
+      </c>
+      <c r="D8" s="3">
+        <v>39465</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38317</v>
+      </c>
+      <c r="F8" s="3">
+        <v>36403</v>
+      </c>
+      <c r="G8" s="3">
+        <v>37548</v>
+      </c>
+      <c r="H8" s="3">
+        <v>36369</v>
+      </c>
+      <c r="I8" s="3">
+        <v>40823</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38168</v>
+      </c>
+      <c r="K8" s="3">
+        <v>42556</v>
+      </c>
+      <c r="L8" s="3">
+        <v>39327</v>
+      </c>
+      <c r="M8" s="3">
+        <v>37614</v>
+      </c>
+      <c r="N8" s="3">
+        <v>36866</v>
+      </c>
+      <c r="O8" s="3">
+        <v>36249</v>
+      </c>
+      <c r="P8" s="3">
+        <v>36839</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>38990</v>
+      </c>
+      <c r="R8" s="20">
+        <f>TRIMMEAN(B8:Q8,20%)</f>
+        <v>38252.428571428572</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>64</v>
       </c>
-      <c r="B9" s="4">
-        <v>20432</v>
-      </c>
-      <c r="C9" s="4">
-        <v>17369</v>
-      </c>
-      <c r="D9" s="4">
-        <v>17616</v>
-      </c>
-      <c r="E9" s="4">
-        <v>18241</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19167</v>
-      </c>
-      <c r="G9" s="4">
-        <v>19163</v>
-      </c>
-      <c r="H9" s="4">
-        <v>17631</v>
-      </c>
-      <c r="I9" s="4">
-        <v>17610</v>
-      </c>
-      <c r="J9" s="4">
-        <v>18584</v>
-      </c>
-      <c r="K9" s="4">
-        <v>18743</v>
-      </c>
-      <c r="L9" s="4">
-        <v>17674</v>
-      </c>
-      <c r="M9" s="4">
-        <v>19413</v>
-      </c>
-      <c r="N9" s="4">
-        <v>19302</v>
-      </c>
-      <c r="O9" s="4">
-        <v>17822</v>
-      </c>
-      <c r="P9" s="4">
-        <v>20380</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>18013</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" si="0"/>
-        <v>18525.642857142859</v>
+      <c r="B9" s="3">
+        <v>26807</v>
+      </c>
+      <c r="C9" s="3">
+        <v>25990</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20563</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23274</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19711</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18440</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20570</v>
+      </c>
+      <c r="I9" s="3">
+        <v>33623</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20741</v>
+      </c>
+      <c r="K9" s="3">
+        <v>18423</v>
+      </c>
+      <c r="L9" s="3">
+        <v>23814</v>
+      </c>
+      <c r="M9" s="3">
+        <v>22629</v>
+      </c>
+      <c r="N9" s="3">
+        <v>19007</v>
+      </c>
+      <c r="O9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>18799</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>18922</v>
+      </c>
+      <c r="R9" s="20">
+        <f>TRIMMEAN(B9:Q9,20%)</f>
+        <v>21383.357142857141</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>128</v>
       </c>
-      <c r="B10" s="4">
-        <v>11058</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9914</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9861</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10443</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9977</v>
-      </c>
-      <c r="G10" s="4">
-        <v>11118</v>
-      </c>
-      <c r="H10" s="4">
-        <v>10743</v>
-      </c>
-      <c r="I10" s="4">
-        <v>9837</v>
-      </c>
-      <c r="J10" s="4">
-        <v>10719</v>
-      </c>
-      <c r="K10" s="4">
-        <v>10324</v>
-      </c>
-      <c r="L10" s="4">
-        <v>10051</v>
-      </c>
-      <c r="M10" s="4">
-        <v>10834</v>
-      </c>
-      <c r="N10" s="4">
-        <v>10602</v>
-      </c>
-      <c r="O10" s="4">
-        <v>9535</v>
-      </c>
-      <c r="P10" s="4">
-        <v>12524</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>10187</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" si="0"/>
-        <v>10404.857142857143</v>
+      <c r="B10" s="3">
+        <v>10988</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13634</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13382</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9889</v>
+      </c>
+      <c r="F10" s="3">
+        <v>16406</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13495</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9050</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12411</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9976</v>
+      </c>
+      <c r="K10" s="3">
+        <v>11797</v>
+      </c>
+      <c r="L10" s="3">
+        <v>11963</v>
+      </c>
+      <c r="M10" s="3">
+        <v>11150</v>
+      </c>
+      <c r="N10" s="3">
+        <v>15104</v>
+      </c>
+      <c r="O10" s="3">
+        <v>13163</v>
+      </c>
+      <c r="P10" s="3">
+        <v>12496</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>14024</v>
+      </c>
+      <c r="R10" s="20">
+        <f>TRIMMEAN(B10:Q10,20%)</f>
+        <v>12390.857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>256</v>
       </c>
-      <c r="B11" s="4">
-        <v>7282</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6573</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6732</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6676</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7342</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6707</v>
-      </c>
-      <c r="H11" s="4">
-        <v>6174</v>
-      </c>
-      <c r="I11" s="4">
-        <v>6374</v>
-      </c>
-      <c r="J11" s="4">
-        <v>6606</v>
-      </c>
-      <c r="K11" s="4">
-        <v>6788</v>
-      </c>
-      <c r="L11" s="4">
-        <v>6345</v>
-      </c>
-      <c r="M11" s="4">
-        <v>6604</v>
-      </c>
-      <c r="N11" s="4">
-        <v>7588</v>
-      </c>
-      <c r="O11" s="4">
-        <v>6748</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7389</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>6519</v>
-      </c>
-      <c r="R11" s="6">
-        <f t="shared" si="0"/>
-        <v>6763.2142857142853</v>
+      <c r="B11" s="3">
+        <v>9312</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7733</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7511</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6188</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7166</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6859</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7138</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8516</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10891</v>
+      </c>
+      <c r="K11" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6561</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7678</v>
+      </c>
+      <c r="N11" s="3">
+        <v>8905</v>
+      </c>
+      <c r="O11" s="3">
+        <v>7570</v>
+      </c>
+      <c r="P11" s="3">
+        <v>6918</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>6747</v>
+      </c>
+      <c r="R11" s="20">
+        <f>TRIMMEAN(B11:Q11,20%)</f>
+        <v>7601</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>512</v>
       </c>
-      <c r="B12" s="4">
-        <v>3856</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4048</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3304</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3878</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3520</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3171</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3662</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3347</v>
-      </c>
-      <c r="J12" s="4">
-        <v>3709</v>
-      </c>
-      <c r="K12" s="4">
-        <v>3501</v>
-      </c>
-      <c r="L12" s="4">
-        <v>4084</v>
-      </c>
-      <c r="M12" s="4">
-        <v>3438</v>
-      </c>
-      <c r="N12" s="4">
-        <v>4209</v>
-      </c>
-      <c r="O12" s="4">
-        <v>3382</v>
-      </c>
-      <c r="P12" s="4">
-        <v>3602</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>3809</v>
-      </c>
-      <c r="R12" s="6">
-        <f t="shared" si="0"/>
-        <v>3652.8571428571427</v>
+      <c r="B12" s="3">
+        <v>5007</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6980</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6687</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3523</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4091</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3912</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4412</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4153</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4536</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3751</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3972</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4187</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3985</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3909</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4648</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4112</v>
+      </c>
+      <c r="R12" s="20">
+        <f>TRIMMEAN(B12:Q12,20%)</f>
+        <v>4383</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1024</v>
       </c>
-      <c r="B13" s="4">
-        <v>1916</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1432</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1480</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1737</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1474</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1983</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1477</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1549</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1449</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1791</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1449</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1887</v>
-      </c>
-      <c r="N13" s="4">
-        <v>2291</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1627</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1917</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1442</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="shared" si="0"/>
-        <v>1655.5714285714287</v>
+      <c r="B13" s="3">
+        <v>3070</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3702</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3386</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3123</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2960</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3698</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4419</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3545</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3165</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3053</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3295</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3302</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2970</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3716</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3148</v>
+      </c>
+      <c r="R13" s="20">
+        <f>TRIMMEAN(B13:Q13,20%)</f>
+        <v>3305.2857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>385882</v>
+      </c>
+      <c r="C19" s="7">
+        <v>397347</v>
+      </c>
+      <c r="D19" s="7">
+        <v>379493</v>
+      </c>
+      <c r="E19" s="7">
+        <v>386806</v>
+      </c>
+      <c r="F19" s="7">
+        <v>385184</v>
+      </c>
+      <c r="G19" s="7">
+        <v>377445</v>
+      </c>
+      <c r="H19" s="7">
+        <v>395209</v>
+      </c>
+      <c r="I19" s="7">
+        <v>397404</v>
+      </c>
+      <c r="J19" s="7">
+        <v>379191</v>
+      </c>
+      <c r="K19" s="7">
+        <v>377473</v>
+      </c>
+      <c r="L19" s="7">
+        <v>418520</v>
+      </c>
+      <c r="M19" s="7">
+        <v>393567</v>
+      </c>
+      <c r="N19" s="7">
+        <v>387032</v>
+      </c>
+      <c r="O19" s="7">
+        <v>375789</v>
+      </c>
+      <c r="P19" s="7">
+        <v>409778</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>374649</v>
+      </c>
+      <c r="R19" s="14">
+        <f>TRIMMEAN(B19:Q19,20%)</f>
+        <v>387685.71428571426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>325330</v>
+      </c>
+      <c r="C20" s="3">
+        <v>300807</v>
+      </c>
+      <c r="D20" s="3">
+        <v>329732</v>
+      </c>
+      <c r="E20" s="3">
+        <v>303353</v>
+      </c>
+      <c r="F20" s="3">
+        <v>336790</v>
+      </c>
+      <c r="G20" s="3">
+        <v>308503</v>
+      </c>
+      <c r="H20" s="3">
+        <v>326605</v>
+      </c>
+      <c r="I20" s="3">
+        <v>302375</v>
+      </c>
+      <c r="J20" s="3">
+        <v>313818</v>
+      </c>
+      <c r="K20" s="3">
+        <v>307660</v>
+      </c>
+      <c r="L20" s="3">
+        <v>346671</v>
+      </c>
+      <c r="M20" s="3">
+        <v>306925</v>
+      </c>
+      <c r="N20" s="3">
+        <v>353606</v>
+      </c>
+      <c r="O20" s="3">
+        <v>304171</v>
+      </c>
+      <c r="P20" s="3">
+        <v>329258</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>310671</v>
+      </c>
+      <c r="R20" s="14">
+        <f>TRIMMEAN(B20:Q20,20%)</f>
+        <v>317990.14285714284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>216819</v>
+      </c>
+      <c r="C21" s="3">
+        <v>201058</v>
+      </c>
+      <c r="D21" s="3">
+        <v>219632</v>
+      </c>
+      <c r="E21" s="3">
+        <v>196044</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200047</v>
+      </c>
+      <c r="G21" s="3">
+        <v>201950</v>
+      </c>
+      <c r="H21" s="3">
+        <v>195049</v>
+      </c>
+      <c r="I21" s="3">
+        <v>192337</v>
+      </c>
+      <c r="J21" s="3">
+        <v>227116</v>
+      </c>
+      <c r="K21" s="3">
+        <v>193940</v>
+      </c>
+      <c r="L21" s="3">
+        <v>205315</v>
+      </c>
+      <c r="M21" s="3">
+        <v>217235</v>
+      </c>
+      <c r="N21" s="3">
+        <v>206222</v>
+      </c>
+      <c r="O21" s="3">
+        <v>200785</v>
+      </c>
+      <c r="P21" s="3">
+        <v>197002</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>197816</v>
+      </c>
+      <c r="R21" s="14">
+        <f>TRIMMEAN(B21:Q21,20%)</f>
+        <v>203493.85714285713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>110882</v>
+      </c>
+      <c r="C22" s="3">
+        <v>113813</v>
+      </c>
+      <c r="D22" s="3">
+        <v>109716</v>
+      </c>
+      <c r="E22" s="3">
+        <v>115999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>116882</v>
+      </c>
+      <c r="G22" s="3">
+        <v>109846</v>
+      </c>
+      <c r="H22" s="3">
+        <v>114542</v>
+      </c>
+      <c r="I22" s="3">
+        <v>112131</v>
+      </c>
+      <c r="J22" s="3">
+        <v>130420</v>
+      </c>
+      <c r="K22" s="3">
+        <v>117086</v>
+      </c>
+      <c r="L22" s="3">
+        <v>115864</v>
+      </c>
+      <c r="M22" s="3">
+        <v>109282</v>
+      </c>
+      <c r="N22" s="3">
+        <v>118522</v>
+      </c>
+      <c r="O22" s="3">
+        <v>111388</v>
+      </c>
+      <c r="P22" s="3">
+        <v>112208</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>112101</v>
+      </c>
+      <c r="R22" s="14">
+        <f>TRIMMEAN(B22:Q22,20%)</f>
+        <v>113641.42857142857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>75641</v>
+      </c>
+      <c r="C23" s="3">
+        <v>69059</v>
+      </c>
+      <c r="D23" s="3">
+        <v>72096</v>
+      </c>
+      <c r="E23" s="3">
+        <v>71363</v>
+      </c>
+      <c r="F23" s="3">
+        <v>69246</v>
+      </c>
+      <c r="G23" s="3">
+        <v>71384</v>
+      </c>
+      <c r="H23" s="3">
+        <v>70710</v>
+      </c>
+      <c r="I23" s="3">
+        <v>69862</v>
+      </c>
+      <c r="J23" s="3">
+        <v>70037</v>
+      </c>
+      <c r="K23" s="3">
+        <v>74473</v>
+      </c>
+      <c r="L23" s="3">
+        <v>77608</v>
+      </c>
+      <c r="M23" s="3">
+        <v>68634</v>
+      </c>
+      <c r="N23" s="3">
+        <v>85346</v>
+      </c>
+      <c r="O23" s="3">
+        <v>71282</v>
+      </c>
+      <c r="P23" s="3">
+        <v>69964</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>72374</v>
+      </c>
+      <c r="R23" s="14">
+        <f>TRIMMEAN(B23:Q23,20%)</f>
+        <v>71792.78571428571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>39211</v>
+      </c>
+      <c r="C24" s="3">
+        <v>35624</v>
+      </c>
+      <c r="D24" s="3">
+        <v>35128</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35312</v>
+      </c>
+      <c r="F24" s="3">
+        <v>37062</v>
+      </c>
+      <c r="G24" s="3">
+        <v>36352</v>
+      </c>
+      <c r="H24" s="3">
+        <v>35295</v>
+      </c>
+      <c r="I24" s="3">
+        <v>35727</v>
+      </c>
+      <c r="J24" s="3">
+        <v>35395</v>
+      </c>
+      <c r="K24" s="3">
+        <v>43603</v>
+      </c>
+      <c r="L24" s="3">
+        <v>35376</v>
+      </c>
+      <c r="M24" s="3">
+        <v>37247</v>
+      </c>
+      <c r="N24" s="3">
+        <v>38821</v>
+      </c>
+      <c r="O24" s="3">
+        <v>38513</v>
+      </c>
+      <c r="P24" s="3">
+        <v>40509</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>35959</v>
+      </c>
+      <c r="R24" s="14">
+        <f>TRIMMEAN(B24:Q24,20%)</f>
+        <v>36885.928571428572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3">
+        <v>18469</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18343</v>
+      </c>
+      <c r="D25" s="3">
+        <v>18544</v>
+      </c>
+      <c r="E25" s="3">
+        <v>18967</v>
+      </c>
+      <c r="F25" s="3">
+        <v>22996</v>
+      </c>
+      <c r="G25" s="3">
+        <v>19817</v>
+      </c>
+      <c r="H25" s="3">
+        <v>18956</v>
+      </c>
+      <c r="I25" s="3">
+        <v>19090</v>
+      </c>
+      <c r="J25" s="3">
+        <v>19092</v>
+      </c>
+      <c r="K25" s="3">
+        <v>20008</v>
+      </c>
+      <c r="L25" s="3">
+        <v>18096</v>
+      </c>
+      <c r="M25" s="3">
+        <v>19485</v>
+      </c>
+      <c r="N25" s="3">
+        <v>21598</v>
+      </c>
+      <c r="O25" s="3">
+        <v>20979</v>
+      </c>
+      <c r="P25" s="3">
+        <v>22336</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>20025</v>
+      </c>
+      <c r="R25" s="14">
+        <f>TRIMMEAN(B25:Q25,20%)</f>
+        <v>19693.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10484</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11192</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9777</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10136</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10539</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10987</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9435</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12824</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11451</v>
+      </c>
+      <c r="K26" s="3">
+        <v>11940</v>
+      </c>
+      <c r="L26" s="3">
+        <v>10912</v>
+      </c>
+      <c r="M26" s="3">
+        <v>11149</v>
+      </c>
+      <c r="N26" s="3">
+        <v>10820</v>
+      </c>
+      <c r="O26" s="3">
+        <v>12273</v>
+      </c>
+      <c r="P26" s="3">
+        <v>9856</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>9464</v>
+      </c>
+      <c r="R26" s="14">
+        <f>TRIMMEAN(B26:Q26,20%)</f>
+        <v>10784.285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>256</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7175</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7154</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7258</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6203</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7083</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7080</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7601</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7009</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7080</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6769</v>
+      </c>
+      <c r="L27" s="3">
+        <v>6927</v>
+      </c>
+      <c r="M27" s="3">
+        <v>6524</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7478</v>
+      </c>
+      <c r="O27" s="3">
+        <v>7222</v>
+      </c>
+      <c r="P27" s="3">
+        <v>7422</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>7189</v>
+      </c>
+      <c r="R27" s="14">
+        <f>TRIMMEAN(B27:Q27,20%)</f>
+        <v>7097.8571428571431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>512</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3571</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3802</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3965</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3107</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3419</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3308</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3253</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3441</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3535</v>
+      </c>
+      <c r="K28" s="3">
+        <v>4251</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3870</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3974</v>
+      </c>
+      <c r="N28" s="3">
+        <v>4912</v>
+      </c>
+      <c r="O28" s="3">
+        <v>4395</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3409</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>5018</v>
+      </c>
+      <c r="R28" s="14">
+        <f>TRIMMEAN(B28:Q28,20%)</f>
+        <v>3793.2142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1594</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1715</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1550</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1751</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1656</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1647</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1722</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1707</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1522</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1753</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2143</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1597</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2628</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1633</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1711</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1858</v>
+      </c>
+      <c r="R29" s="14">
+        <f>TRIMMEAN(B29:Q29,20%)</f>
+        <v>1716.9285714285713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B689733F-E066-403B-922D-38015CFB5E92}">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
